--- a/Masha/Кулики-Литораль Лето 2023.xlsx
+++ b/Masha/Кулики-Литораль Лето 2023.xlsx
@@ -18,7 +18,7 @@
     <sheet name="analys_photo_litoral" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">analys_photo_litoral!$A$1:$N$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">analys_photo_litoral!$A$1:$N$170</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="403">
   <si>
     <t>Дата и время</t>
   </si>
@@ -770,9 +770,6 @@
   </si>
   <si>
     <t>Стл2М4(общ)</t>
-  </si>
-  <si>
-    <t>Стл2М5(общ)</t>
   </si>
   <si>
     <t>Стл3М1(1)</t>
@@ -15994,7 +15991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -17917,12 +17914,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1048165"/>
+  <dimension ref="A1:N1048164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1048570" sqref="B1048570"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="M170" sqref="M170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17944,43 +17941,43 @@
         <v>220</v>
       </c>
       <c r="B1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" t="s">
         <v>392</v>
       </c>
-      <c r="C1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K1" t="s">
         <v>401</v>
       </c>
-      <c r="F1" t="s">
-        <v>394</v>
-      </c>
-      <c r="G1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M1" t="s">
         <v>397</v>
       </c>
-      <c r="J1" t="s">
-        <v>396</v>
-      </c>
-      <c r="K1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L1" t="s">
-        <v>403</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>398</v>
-      </c>
-      <c r="N1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -18053,13 +18050,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -18142,11 +18136,8 @@
       <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -18239,10 +18230,10 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -18326,29 +18317,20 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>244</v>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" s="11">
+        <v>0.04</v>
       </c>
       <c r="C25" s="11">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="F25">
         <v>3</v>
       </c>
     </row>
@@ -18362,6 +18344,9 @@
       <c r="C26" s="11">
         <v>3</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
@@ -18373,8 +18358,8 @@
       <c r="C27" s="11">
         <v>3</v>
       </c>
-      <c r="D27">
-        <v>1</v>
+      <c r="F27">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -18387,8 +18372,8 @@
       <c r="C28" s="11">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>2</v>
+      <c r="D28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -18401,39 +18386,33 @@
       <c r="C29" s="11">
         <v>3</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="11">
-        <v>0.04</v>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30" s="11">
         <v>3</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>250</v>
       </c>
-      <c r="B31">
-        <v>1</v>
+      <c r="B31" s="11">
+        <v>0.04</v>
       </c>
       <c r="C31" s="11">
         <v>3</v>
-      </c>
-      <c r="D31">
-        <v>16</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -18446,6 +18425,9 @@
       <c r="C32" s="11">
         <v>3</v>
       </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
@@ -18457,9 +18439,6 @@
       <c r="C33" s="11">
         <v>3</v>
       </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
@@ -18476,27 +18455,27 @@
       <c r="A35" t="s">
         <v>254</v>
       </c>
-      <c r="B35" s="11">
-        <v>0.04</v>
+      <c r="B35">
+        <v>1</v>
       </c>
       <c r="C35" s="11">
         <v>3</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>255</v>
       </c>
-      <c r="B36">
-        <v>1</v>
+      <c r="B36" s="11">
+        <v>0.04</v>
       </c>
       <c r="C36" s="11">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>7</v>
-      </c>
-      <c r="F36">
         <v>3</v>
       </c>
     </row>
@@ -18510,6 +18489,9 @@
       <c r="C37" s="11">
         <v>3</v>
       </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
@@ -18521,8 +18503,8 @@
       <c r="C38" s="11">
         <v>3</v>
       </c>
-      <c r="K38">
-        <v>1</v>
+      <c r="F38">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -18535,9 +18517,6 @@
       <c r="C39" s="11">
         <v>3</v>
       </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
@@ -18554,28 +18533,28 @@
       <c r="A41" t="s">
         <v>260</v>
       </c>
-      <c r="B41" s="11">
-        <v>0.04</v>
+      <c r="B41">
+        <v>1</v>
       </c>
       <c r="C41" s="11">
         <v>3</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>261</v>
       </c>
-      <c r="B42">
-        <v>1</v>
+      <c r="B42" s="11">
+        <v>0.04</v>
       </c>
       <c r="C42" s="11">
         <v>3</v>
-      </c>
-      <c r="D42">
-        <v>8</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -18599,6 +18578,9 @@
       <c r="C44" s="11">
         <v>3</v>
       </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
@@ -18610,9 +18592,6 @@
       <c r="C45" s="11">
         <v>3</v>
       </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
@@ -18629,34 +18608,37 @@
       <c r="A47" t="s">
         <v>266</v>
       </c>
-      <c r="B47" s="11">
-        <v>0.04</v>
+      <c r="B47">
+        <v>1</v>
       </c>
       <c r="C47" s="11">
         <v>3</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>267</v>
       </c>
-      <c r="B48">
-        <v>1</v>
+      <c r="B48" s="11">
+        <v>0.04</v>
       </c>
       <c r="C48" s="11">
+        <v>7</v>
+      </c>
+      <c r="D48">
         <v>3</v>
       </c>
-      <c r="D48">
-        <v>7</v>
-      </c>
-      <c r="F48">
-        <v>3</v>
+      <c r="H48">
+        <v>11</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>268</v>
       </c>
@@ -18666,17 +18648,11 @@
       <c r="C49" s="11">
         <v>7</v>
       </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
       <c r="H49">
-        <v>11</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>269</v>
       </c>
@@ -18686,11 +18662,14 @@
       <c r="C50" s="11">
         <v>7</v>
       </c>
-      <c r="H50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>270</v>
       </c>
@@ -18700,14 +18679,11 @@
       <c r="C51" s="11">
         <v>7</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>271</v>
       </c>
@@ -18717,57 +18693,54 @@
       <c r="C52" s="11">
         <v>7</v>
       </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
       <c r="H52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>272</v>
       </c>
-      <c r="B53" s="11">
-        <v>0.04</v>
+      <c r="B53">
+        <v>1</v>
       </c>
       <c r="C53" s="11">
         <v>7</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="H53">
+      <c r="G53">
         <v>2</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>273</v>
       </c>
-      <c r="B54">
-        <v>1</v>
+      <c r="B54" s="11">
+        <v>0.04</v>
       </c>
       <c r="C54" s="11">
         <v>7</v>
       </c>
-      <c r="D54">
-        <v>7</v>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="I54">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>274</v>
       </c>
@@ -18777,8 +18750,11 @@
       <c r="C55" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>275</v>
       </c>
@@ -18788,11 +18764,11 @@
       <c r="C56" s="11">
         <v>7</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="H56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>276</v>
       </c>
@@ -18802,39 +18778,42 @@
       <c r="C57" s="11">
         <v>7</v>
       </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>277</v>
       </c>
-      <c r="B58" s="11">
-        <v>0.04</v>
+      <c r="B58">
+        <v>1</v>
       </c>
       <c r="C58" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="M58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>278</v>
       </c>
-      <c r="B59">
-        <v>1</v>
+      <c r="B59" s="11">
+        <v>0.04</v>
       </c>
       <c r="C59" s="11">
         <v>7</v>
       </c>
       <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>279</v>
       </c>
@@ -18845,41 +18824,41 @@
         <v>7</v>
       </c>
       <c r="D60">
-        <v>3</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>280</v>
       </c>
-      <c r="B61" s="11">
-        <v>0.04</v>
+      <c r="B61">
+        <v>1</v>
       </c>
       <c r="C61" s="11">
         <v>7</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>281</v>
       </c>
-      <c r="B62">
-        <v>1</v>
+      <c r="B62" s="11">
+        <v>0.04</v>
       </c>
       <c r="C62" s="11">
-        <v>7</v>
-      </c>
-      <c r="D62">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -18890,10 +18869,10 @@
         <v>28</v>
       </c>
       <c r="H63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>283</v>
       </c>
@@ -18903,11 +18882,14 @@
       <c r="C64" s="11">
         <v>28</v>
       </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
       <c r="H64">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>284</v>
       </c>
@@ -18918,13 +18900,16 @@
         <v>28</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="I65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>285</v>
       </c>
@@ -18940,45 +18925,45 @@
       <c r="H66">
         <v>2</v>
       </c>
-      <c r="I66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>286</v>
       </c>
-      <c r="B67" s="11">
-        <v>0.04</v>
+      <c r="B67">
+        <v>1</v>
       </c>
       <c r="C67" s="11">
         <v>28</v>
       </c>
       <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>287</v>
       </c>
-      <c r="B68">
-        <v>1</v>
+      <c r="B68" s="11">
+        <v>0.04</v>
       </c>
       <c r="C68" s="11">
         <v>28</v>
       </c>
       <c r="D68">
-        <v>16</v>
-      </c>
-      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="H68">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>288</v>
       </c>
@@ -18991,11 +18976,8 @@
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="H69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>289</v>
       </c>
@@ -19006,10 +18988,10 @@
         <v>28</v>
       </c>
       <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>290</v>
       </c>
@@ -19020,10 +19002,13 @@
         <v>28</v>
       </c>
       <c r="D71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>291</v>
       </c>
@@ -19033,48 +19018,39 @@
       <c r="C72" s="11">
         <v>28</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
       <c r="H72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>292</v>
       </c>
-      <c r="B73" s="11">
-        <v>0.04</v>
+      <c r="B73">
+        <v>1</v>
       </c>
       <c r="C73" s="11">
         <v>28</v>
       </c>
-      <c r="H73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="D73">
+        <v>14</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>293</v>
       </c>
-      <c r="B74">
-        <v>1</v>
+      <c r="B74" s="11">
+        <v>0.04</v>
       </c>
       <c r="C74" s="11">
         <v>28</v>
       </c>
-      <c r="D74">
-        <v>15</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>294</v>
       </c>
@@ -19085,7 +19061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
         <v>295</v>
       </c>
@@ -19095,8 +19071,14 @@
       <c r="C76" s="11">
         <v>28</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
         <v>296</v>
       </c>
@@ -19107,50 +19089,44 @@
         <v>28</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
         <v>297</v>
       </c>
-      <c r="B78" s="11">
-        <v>0.04</v>
+      <c r="B78">
+        <v>1</v>
       </c>
       <c r="C78" s="11">
         <v>28</v>
       </c>
       <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
         <v>298</v>
       </c>
-      <c r="B79">
-        <v>1</v>
+      <c r="B79" s="11">
+        <v>0.04</v>
       </c>
       <c r="C79" s="11">
         <v>28</v>
       </c>
       <c r="D79">
-        <v>14</v>
-      </c>
-      <c r="I79">
-        <v>3</v>
-      </c>
-      <c r="L79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>299</v>
       </c>
@@ -19159,12 +19135,6 @@
       </c>
       <c r="C80" s="11">
         <v>28</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -19188,6 +19158,9 @@
       <c r="C82" s="11">
         <v>28</v>
       </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
@@ -19199,42 +19172,36 @@
       <c r="C83" s="11">
         <v>28</v>
       </c>
-      <c r="D83">
-        <v>1</v>
+      <c r="H83">
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>303</v>
       </c>
-      <c r="B84" s="11">
-        <v>0.04</v>
+      <c r="B84">
+        <v>1</v>
       </c>
       <c r="C84" s="11">
         <v>28</v>
       </c>
-      <c r="H84">
-        <v>2</v>
+      <c r="D84">
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>304</v>
       </c>
-      <c r="B85">
-        <v>1</v>
+      <c r="B85" s="11">
+        <v>0.04</v>
       </c>
       <c r="C85" s="11">
-        <v>28</v>
-      </c>
-      <c r="D85">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I85">
         <v>4</v>
-      </c>
-      <c r="L85">
-        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -19247,8 +19214,8 @@
       <c r="C86" s="11">
         <v>46</v>
       </c>
-      <c r="I86">
-        <v>4</v>
+      <c r="D86">
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -19262,7 +19229,7 @@
         <v>46</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -19278,6 +19245,9 @@
       <c r="D88">
         <v>3</v>
       </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
@@ -19293,50 +19263,41 @@
         <v>3</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>309</v>
       </c>
-      <c r="B90" s="11">
-        <v>0.04</v>
+      <c r="B90">
+        <v>1</v>
       </c>
       <c r="C90" s="11">
         <v>46</v>
       </c>
       <c r="D90">
-        <v>3</v>
-      </c>
-      <c r="H90">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>310</v>
       </c>
-      <c r="B91">
-        <v>1</v>
+      <c r="B91" s="11">
+        <v>0.04</v>
       </c>
       <c r="C91" s="11">
         <v>46</v>
       </c>
       <c r="D91">
-        <v>4</v>
-      </c>
-      <c r="E91">
-        <v>3</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="I91">
-        <v>4</v>
-      </c>
-      <c r="M91">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -19349,11 +19310,11 @@
       <c r="C92" s="11">
         <v>46</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
       <c r="H92">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -19366,11 +19327,14 @@
       <c r="C93" s="11">
         <v>46</v>
       </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
       <c r="H93">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -19384,56 +19348,44 @@
         <v>46</v>
       </c>
       <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="H94">
         <v>2</v>
       </c>
-      <c r="H94">
-        <v>8</v>
-      </c>
       <c r="I94">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>314</v>
       </c>
-      <c r="B95" s="11">
-        <v>0.04</v>
+      <c r="B95">
+        <v>1</v>
       </c>
       <c r="C95" s="11">
         <v>46</v>
       </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="H95">
-        <v>2</v>
+      <c r="D95">
+        <v>6</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>315</v>
       </c>
-      <c r="B96">
-        <v>1</v>
+      <c r="B96" s="11">
+        <v>0.04</v>
       </c>
       <c r="C96" s="11">
         <v>46</v>
       </c>
-      <c r="D96">
-        <v>7</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
       <c r="I96">
-        <v>23</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -19446,6 +19398,9 @@
       <c r="C97" s="11">
         <v>46</v>
       </c>
+      <c r="E97">
+        <v>11</v>
+      </c>
       <c r="I97">
         <v>6</v>
       </c>
@@ -19461,47 +19416,41 @@
         <v>46</v>
       </c>
       <c r="E98">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I98">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>318</v>
       </c>
-      <c r="B99" s="11">
-        <v>0.04</v>
+      <c r="B99">
+        <v>1</v>
       </c>
       <c r="C99" s="11">
         <v>46</v>
       </c>
       <c r="E99">
-        <v>8</v>
-      </c>
-      <c r="I99">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="M99">
+        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>319</v>
       </c>
-      <c r="B100">
-        <v>1</v>
+      <c r="B100" s="11">
+        <v>0.04</v>
       </c>
       <c r="C100" s="11">
         <v>46</v>
       </c>
       <c r="E100">
-        <v>35</v>
-      </c>
-      <c r="I100">
-        <v>15</v>
-      </c>
-      <c r="M100">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -19515,44 +19464,47 @@
         <v>46</v>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>321</v>
       </c>
-      <c r="B102" s="11">
-        <v>0.04</v>
+      <c r="B102">
+        <v>1</v>
       </c>
       <c r="C102" s="11">
         <v>46</v>
       </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
       <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>322</v>
       </c>
-      <c r="B103">
-        <v>1</v>
+      <c r="B103" s="11">
+        <v>0.04</v>
       </c>
       <c r="C103" s="11">
-        <v>46</v>
-      </c>
-      <c r="E103">
-        <v>14</v>
-      </c>
-      <c r="I103">
-        <v>10</v>
-      </c>
-      <c r="M103">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -19566,10 +19518,13 @@
         <v>63</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
       </c>
       <c r="H104">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -19583,13 +19538,10 @@
         <v>63</v>
       </c>
       <c r="D105">
-        <v>3</v>
-      </c>
-      <c r="F105">
-        <v>2</v>
-      </c>
-      <c r="H105">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -19613,37 +19565,35 @@
       <c r="A107" t="s">
         <v>326</v>
       </c>
-      <c r="B107" s="11">
-        <v>0.04</v>
+      <c r="B107">
+        <f>(100)*90/10000</f>
+        <v>0.9</v>
       </c>
       <c r="C107" s="11">
         <v>63</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
         <v>327</v>
       </c>
-      <c r="B108">
-        <v>1</v>
+      <c r="B108" s="11">
+        <v>0.04</v>
       </c>
       <c r="C108" s="11">
         <v>63</v>
       </c>
-      <c r="D108">
-        <v>8</v>
+      <c r="H108">
+        <v>3</v>
       </c>
       <c r="I108">
-        <v>17</v>
-      </c>
-      <c r="M108">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -19656,10 +19606,7 @@
       <c r="C109" s="11">
         <v>63</v>
       </c>
-      <c r="H109">
-        <v>3</v>
-      </c>
-      <c r="I109">
+      <c r="F109">
         <v>2</v>
       </c>
     </row>
@@ -19673,9 +19620,6 @@
       <c r="C110" s="11">
         <v>63</v>
       </c>
-      <c r="F110">
-        <v>2</v>
-      </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
@@ -19687,6 +19631,12 @@
       <c r="C111" s="11">
         <v>63</v>
       </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
@@ -19698,48 +19648,42 @@
       <c r="C112" s="11">
         <v>63</v>
       </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>1</v>
+      <c r="D112">
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>332</v>
       </c>
-      <c r="B113" s="11">
-        <v>0.04</v>
+      <c r="B113">
+        <v>1</v>
       </c>
       <c r="C113" s="11">
         <v>63</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="I113">
+        <v>10</v>
+      </c>
+      <c r="M113">
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>333</v>
       </c>
-      <c r="B114">
-        <v>1</v>
+      <c r="B114" s="11">
+        <v>0.04</v>
       </c>
       <c r="C114" s="11">
-        <v>63</v>
-      </c>
-      <c r="D114">
-        <v>10</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I114">
-        <v>11</v>
-      </c>
-      <c r="M114">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -19752,9 +19696,6 @@
       <c r="C115" s="11">
         <v>77</v>
       </c>
-      <c r="I115">
-        <v>2</v>
-      </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
@@ -19766,6 +19707,9 @@
       <c r="C116" s="11">
         <v>77</v>
       </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
@@ -19792,41 +19736,35 @@
         <v>77</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>338</v>
       </c>
-      <c r="B119" s="11">
-        <v>0.04</v>
+      <c r="B119">
+        <v>1</v>
       </c>
       <c r="C119" s="11">
         <v>77</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
         <v>339</v>
       </c>
-      <c r="B120">
-        <v>1</v>
+      <c r="B120" s="11">
+        <v>0.04</v>
       </c>
       <c r="C120" s="11">
         <v>77</v>
       </c>
-      <c r="E120">
+      <c r="I120">
         <v>3</v>
-      </c>
-      <c r="I120">
-        <v>15</v>
-      </c>
-      <c r="L120">
-        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -19853,13 +19791,10 @@
       <c r="C122" s="11">
         <v>77</v>
       </c>
-      <c r="I122">
-        <v>3</v>
-      </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B123" s="11">
         <v>0.04</v>
@@ -19878,39 +19813,36 @@
       <c r="C124" s="11">
         <v>77</v>
       </c>
+      <c r="I124">
+        <v>7</v>
+      </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
         <v>345</v>
       </c>
-      <c r="B125" s="11">
-        <v>0.04</v>
+      <c r="B125">
+        <v>1</v>
       </c>
       <c r="C125" s="11">
         <v>77</v>
       </c>
       <c r="I125">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
         <v>346</v>
       </c>
-      <c r="B126">
-        <v>1</v>
+      <c r="B126" s="11">
+        <v>0.04</v>
       </c>
       <c r="C126" s="11">
         <v>77</v>
       </c>
-      <c r="F126">
-        <v>2</v>
-      </c>
       <c r="I126">
-        <v>10</v>
-      </c>
-      <c r="L126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -19924,7 +19856,7 @@
         <v>77</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -19937,13 +19869,10 @@
       <c r="C128" s="11">
         <v>77</v>
       </c>
-      <c r="I128">
-        <v>2</v>
-      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B129" s="11">
         <v>0.04</v>
@@ -19954,7 +19883,7 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B130" s="11">
         <v>0.04</v>
@@ -19967,28 +19896,28 @@
       <c r="A131" t="s">
         <v>350</v>
       </c>
-      <c r="B131" s="11">
-        <v>0.04</v>
+      <c r="B131">
+        <v>1</v>
       </c>
       <c r="C131" s="11">
         <v>77</v>
+      </c>
+      <c r="I131">
+        <v>6</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>351</v>
       </c>
-      <c r="B132">
-        <v>1</v>
+      <c r="B132" s="11">
+        <v>0.04</v>
       </c>
       <c r="C132" s="11">
         <v>77</v>
-      </c>
-      <c r="I132">
-        <v>6</v>
-      </c>
-      <c r="M132">
-        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -20023,39 +19952,39 @@
       <c r="C135" s="11">
         <v>77</v>
       </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>355</v>
       </c>
-      <c r="B136" s="11">
-        <v>0.04</v>
+      <c r="B136">
+        <v>1</v>
       </c>
       <c r="C136" s="11">
         <v>77</v>
       </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
       <c r="I136">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>356</v>
       </c>
-      <c r="B137">
-        <v>1</v>
+      <c r="B137" s="11">
+        <v>0.04</v>
       </c>
       <c r="C137" s="11">
         <v>77</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="I137">
-        <v>6</v>
-      </c>
-      <c r="M137">
-        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -20090,6 +20019,9 @@
       <c r="C140" s="11">
         <v>77</v>
       </c>
+      <c r="I140">
+        <v>7</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" t="s">
@@ -20102,44 +20034,38 @@
         <v>77</v>
       </c>
       <c r="I141">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>361</v>
       </c>
-      <c r="B142" s="11">
-        <v>0.04</v>
+      <c r="B142">
+        <v>1</v>
       </c>
       <c r="C142" s="11">
         <v>77</v>
       </c>
       <c r="I142">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="M142">
+        <v>14</v>
+      </c>
+      <c r="N142">
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>362</v>
       </c>
-      <c r="B143">
-        <v>1</v>
+      <c r="B143" s="11">
+        <v>0.04</v>
       </c>
       <c r="C143" s="11">
-        <v>77</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="I143">
-        <v>37</v>
-      </c>
-      <c r="M143">
-        <v>22</v>
-      </c>
-      <c r="N143">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -20163,6 +20089,9 @@
       <c r="C145" s="11">
         <v>79</v>
       </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
@@ -20175,7 +20104,7 @@
         <v>79</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -20189,38 +20118,38 @@
         <v>79</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" t="s">
         <v>367</v>
       </c>
-      <c r="B148" s="11">
-        <v>0.04</v>
+      <c r="B148">
+        <v>1</v>
       </c>
       <c r="C148" s="11">
         <v>79</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="M148">
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" t="s">
         <v>368</v>
       </c>
-      <c r="B149">
-        <v>1</v>
+      <c r="B149" s="11">
+        <v>0.04</v>
       </c>
       <c r="C149" s="11">
         <v>79</v>
       </c>
       <c r="I149">
-        <v>8</v>
-      </c>
-      <c r="M149">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -20234,12 +20163,12 @@
         <v>79</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B151" s="11">
         <v>0.04</v>
@@ -20248,44 +20177,41 @@
         <v>79</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" t="s">
         <v>372</v>
       </c>
-      <c r="B152" s="11">
-        <v>0.04</v>
+      <c r="B152">
+        <v>1</v>
       </c>
       <c r="C152" s="11">
         <v>79</v>
       </c>
       <c r="I152">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="M152">
+        <v>11</v>
+      </c>
+      <c r="N152">
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" t="s">
         <v>373</v>
       </c>
-      <c r="B153">
-        <v>1</v>
+      <c r="B153" s="11">
+        <v>0.04</v>
       </c>
       <c r="C153" s="11">
         <v>79</v>
       </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
       <c r="I153">
-        <v>11</v>
-      </c>
-      <c r="M153">
-        <v>17</v>
-      </c>
-      <c r="N153">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -20298,9 +20224,6 @@
       <c r="C154" s="11">
         <v>79</v>
       </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" t="s">
@@ -20312,10 +20235,13 @@
       <c r="C155" s="11">
         <v>79</v>
       </c>
+      <c r="I155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B156" s="11">
         <v>0.04</v>
@@ -20324,12 +20250,12 @@
         <v>79</v>
       </c>
       <c r="I156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B157" s="11">
         <v>0.04</v>
@@ -20345,37 +20271,28 @@
       <c r="A158" t="s">
         <v>377</v>
       </c>
-      <c r="B158" s="11">
-        <v>0.04</v>
+      <c r="B158">
+        <v>1</v>
       </c>
       <c r="C158" s="11">
         <v>79</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
         <v>378</v>
       </c>
-      <c r="B159">
-        <v>1</v>
+      <c r="B159" s="11">
+        <v>0.04</v>
       </c>
       <c r="C159" s="11">
         <v>79</v>
-      </c>
-      <c r="E159">
-        <v>2</v>
-      </c>
-      <c r="I159">
-        <v>8</v>
-      </c>
-      <c r="M159">
-        <v>4</v>
-      </c>
-      <c r="N159">
-        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -20391,13 +20308,16 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B161" s="11">
         <v>0.04</v>
       </c>
       <c r="C161" s="11">
         <v>79</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -20410,13 +20330,10 @@
       <c r="C162" s="11">
         <v>79</v>
       </c>
-      <c r="I162">
-        <v>2</v>
-      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B163" s="11">
         <v>0.04</v>
@@ -20427,33 +20344,33 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>381</v>
-      </c>
-      <c r="B164" s="11">
-        <v>0.04</v>
+        <v>383</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
       </c>
       <c r="C164" s="11">
         <v>79</v>
+      </c>
+      <c r="I164">
+        <v>5</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" t="s">
         <v>384</v>
       </c>
-      <c r="B165">
-        <v>1</v>
+      <c r="B165" s="11">
+        <v>0.04</v>
       </c>
       <c r="C165" s="11">
         <v>79</v>
-      </c>
-      <c r="I165">
-        <v>5</v>
-      </c>
-      <c r="M165">
-        <v>3</v>
-      </c>
-      <c r="N165">
-        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -20466,6 +20383,9 @@
       <c r="C166" s="11">
         <v>79</v>
       </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" t="s">
@@ -20477,9 +20397,6 @@
       <c r="C167" s="11">
         <v>79</v>
       </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" t="s">
@@ -20507,33 +20424,22 @@
       <c r="A170" t="s">
         <v>389</v>
       </c>
-      <c r="B170" s="11">
-        <v>0.04</v>
+      <c r="B170">
+        <v>1</v>
       </c>
       <c r="C170" s="11">
         <v>79</v>
       </c>
-    </row>
-    <row r="171" spans="1:14">
-      <c r="A171" t="s">
-        <v>390</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171" s="11">
-        <v>79</v>
-      </c>
-      <c r="I171">
-        <v>4</v>
-      </c>
-      <c r="N171">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1048165" s="12" customFormat="1"/>
+      <c r="I170">
+        <v>3</v>
+      </c>
+      <c r="N170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048164" s="12" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="A1:N171"/>
+  <autoFilter ref="A1:N170"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>